--- a/data/xls/2012-09-01/20121214-EER-R11-Web-Allergan.xlsx
+++ b/data/xls/2012-09-01/20121214-EER-R11-Web-Allergan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23117"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7520" yWindow="740" windowWidth="38860" windowHeight="24640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="560">
   <si>
     <r>
       <rPr>
@@ -5129,12 +5129,107 @@
   <si>
     <t>$6,909.09Includes: Sponsorship</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Description of Function including the duration
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>of educational content involved</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Venue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Professional status of attendees</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Hospitality provided</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Total cost of
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Hospitality</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Total number of attendees
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>(number)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Total Cost of
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Function</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5172,8 +5267,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5188,6 +5287,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99CC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
   </fills>
@@ -5435,7 +5539,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5482,6 +5586,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5894,8 +6001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A76" sqref="A39:XFD76"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5931,27 +6038,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
+    <row r="5" spans="1:7" customFormat="1" ht="29" customHeight="1">
+      <c r="A5" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:7">
